--- a/public/import/weekly_template_Non Result.xlsx
+++ b/public/import/weekly_template_Non Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPM RETAIL MEI 2022\AMPM INDAH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMPM RETAIL MEI 2022\AMPM PAK WILLIAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -39,52 +39,64 @@
     <t>NON</t>
   </si>
   <si>
-    <t>Mengatur jadwal meeting maupun pertermuan Retail Store Manager.</t>
-  </si>
-  <si>
-    <t>Merekap Key Performance Indicator (KPI) to do list divisi retail.</t>
-  </si>
-  <si>
-    <t>Melakukan monitoring implementasi hasil Minutes of Meeting (MoM).</t>
-  </si>
-  <si>
-    <t>Membuat Minutes of Meeting (MoM) setiap meeting dan briefing divisi retail.</t>
-  </si>
-  <si>
-    <t>Melakukan pembaharuan data pencapaian pelayanan retail (Aktual vs Target).</t>
-  </si>
-  <si>
-    <t>Memastikan agenda yang telah direncanakan Retail Store Manager dapat berjalan dengan baik.</t>
-  </si>
-  <si>
-    <t>Melakukan monitoring laporan operasional tim toko retail (Buku customer , Operasional toko , Stock opname , Kompetitor , Store activity , Absen Trainning OJT, To do list Retail, Punishment Zurich)</t>
-  </si>
-  <si>
-    <t>Melakukan monitoring kegiatan briefing tim toko retail.</t>
-  </si>
-  <si>
-    <t>Memastikan operasional toko retail berjalan sesuai dengan Standar Operasional Prosedur (SOP)</t>
-  </si>
-  <si>
-    <t>Merekap data laporan kondisi CCTV seluruh toko retail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendokumentasikan (posting/repost) di akun media sosial divisi retail setiap adanya penjualan di toko retail. </t>
-  </si>
-  <si>
-    <t>Memastikan report jumsih , so asset , so air mineral dan panasin genset toko retail</t>
-  </si>
-  <si>
-    <t>Membuat dan menyerahkan Laporan Pertanggungjawaban (LPJ) kepada Retail Store Manager setiap minggunya.</t>
-  </si>
-  <si>
-    <t>Membuat jadwal to do list harian untuk Retail Store Manager.</t>
-  </si>
-  <si>
-    <t>Melakukan monitoring presensi (check in / check out) dan keluar masuk toko retail pada aplikasi talenta dan ke whatsapp group “masing - masing Coordinator”.</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>Follow up dian ar neraca cn</t>
+  </si>
+  <si>
+    <t>Follow up pa abi oppo update achievement cs grup</t>
+  </si>
+  <si>
+    <t>Follow up trista update achievement cs grup</t>
+  </si>
+  <si>
+    <t>Follow up pa rhompi indodana running pembayaran indodana</t>
+  </si>
+  <si>
+    <t>Follow up pa eko atome running pembayaran atome</t>
+  </si>
+  <si>
+    <t>Follow up GA perbaikan lampu sorot tuparev</t>
+  </si>
+  <si>
+    <t>Cek pnl mitra with bu bety</t>
+  </si>
+  <si>
+    <t>Meeting manager</t>
+  </si>
+  <si>
+    <t>Create design pop september</t>
+  </si>
+  <si>
+    <t>Visit cs sindang</t>
+  </si>
+  <si>
+    <t>Visit hpm sindang</t>
+  </si>
+  <si>
+    <t>Follow up arif infinix pengajuan mochan</t>
+  </si>
+  <si>
+    <t>Follow up bu ninda shopeepaylater yang qr belum muncul</t>
+  </si>
+  <si>
+    <t>Follow up ko david tam proses branding iphone tuparev</t>
+  </si>
+  <si>
+    <t>Follow up pa miko pengajuan branding samsung</t>
+  </si>
+  <si>
+    <t>Visit jatiwangi</t>
+  </si>
+  <si>
+    <t>Visit jatiwangi 2</t>
+  </si>
+  <si>
+    <t>Visit intiphone</t>
+  </si>
+  <si>
+    <t>Meet up tim tbi xiaomi</t>
+  </si>
+  <si>
+    <t>Meeting weekly vivo big crb with rsc</t>
   </si>
 </sst>
 </file>
@@ -104,6 +116,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,39 +127,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -155,15 +140,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -469,265 +449,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="82.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="97.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="1">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="1">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="1">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="1">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="1">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="1">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="1">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="1">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="1">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="1">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="1">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="1">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="1">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="1">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="1">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="1">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="1">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="1">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>